--- a/DL Parameters.xlsx
+++ b/DL Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claireobrien/Desktop/Data Analytics MSc/Semester 2/CA1/Semester-CA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F7FE9A9-ACE0-7141-A78D-F8A9639AD5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAE804-2EB5-9342-BFCA-8D4F12B5EAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{7B672021-90CF-164A-97B9-10BB9D4BDD5E}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{7B672021-90CF-164A-97B9-10BB9D4BDD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Activation Function </t>
   </si>
@@ -48,7 +48,58 @@
     <t xml:space="preserve">Loss Function </t>
   </si>
   <si>
-    <t xml:space="preserve">Depth </t>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Relu</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>mean_squared_error</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>leaky_relu</t>
+  </si>
+  <si>
+    <t>elu</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>swish</t>
+  </si>
+  <si>
+    <t>mean_absoluate_error</t>
+  </si>
+  <si>
+    <t>Mean_squared_logarithmic_error</t>
+  </si>
+  <si>
+    <t>log_cosh_huber_loss</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>rmsporop</t>
+  </si>
+  <si>
+    <t>adagrad</t>
+  </si>
+  <si>
+    <t>adadelta</t>
+  </si>
+  <si>
+    <t>nadam</t>
   </si>
 </sst>
 </file>
@@ -400,20 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7770173B-10D2-FB44-9112-1BF164DF115C}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +480,97 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
